--- a/data/Jose CaroT2-2025.xlsx
+++ b/data/Jose CaroT2-2025.xlsx
@@ -8,7 +8,6 @@
   <sheets>
     <sheet name="By Song" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="By Source" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="By Country" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -584,7 +583,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1.22862507</v>
+        <v>1.01862507</v>
       </c>
     </row>
   </sheetData>
@@ -765,100 +764,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" blackAndWhite="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="C3:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="3">
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ANVEM PUBLISHING</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CARO PAYAN, JOSE CARLOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>REGALIAS 2DO TRIMESTRE 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Currency : USD</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>COUNTRY</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>UNITS</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>ROYALTIES</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="D10" s="10" t="n">
-        <v>14903</v>
-      </c>
-      <c r="E10" s="11" t="n">
-        <v>1.01862507</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="n">
-        <v>14903</v>
-      </c>
-      <c r="E12" s="11" t="n">
-        <v>1.01862507</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" blackAndWhite="0"/>
-</worksheet>
 </file>